--- a/Day1 Coding Challenge/Household_Energy_project.xlsx
+++ b/Day1 Coding Challenge/Household_Energy_project.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Household_Energy_project" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="1" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -1881,11 +1881,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="617346720"/>
-        <c:axId val="617341280"/>
+        <c:axId val="-406225584"/>
+        <c:axId val="-406227216"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="617346720"/>
+        <c:axId val="-406225584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1895,7 +1895,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="617341280"/>
+        <c:crossAx val="-406227216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1903,7 +1903,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="617341280"/>
+        <c:axId val="-406227216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1927,7 +1927,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="617346720"/>
+        <c:crossAx val="-406225584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2198,11 +2198,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="617354880"/>
-        <c:axId val="617350528"/>
+        <c:axId val="-406228304"/>
+        <c:axId val="-406226672"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="617354880"/>
+        <c:axId val="-406228304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2212,7 +2212,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="617350528"/>
+        <c:crossAx val="-406226672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2220,7 +2220,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="617350528"/>
+        <c:axId val="-406226672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2230,7 +2230,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="617354880"/>
+        <c:crossAx val="-406228304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2842,11 +2842,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="617341824"/>
-        <c:axId val="617345088"/>
+        <c:axId val="-406228848"/>
+        <c:axId val="-406226128"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="617341824"/>
+        <c:axId val="-406228848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2889,7 +2889,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617345088"/>
+        <c:crossAx val="-406226128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2897,7 +2897,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="617345088"/>
+        <c:axId val="-406226128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2934,7 +2934,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617341824"/>
+        <c:crossAx val="-406228848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9744,289 +9744,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
-  <location ref="A3:B11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="10">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="8">
-        <item x="6"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="5"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0">
-      <items count="189">
-        <item x="164"/>
-        <item x="26"/>
-        <item x="132"/>
-        <item x="95"/>
-        <item x="182"/>
-        <item x="1"/>
-        <item x="22"/>
-        <item x="118"/>
-        <item x="162"/>
-        <item x="114"/>
-        <item x="0"/>
-        <item x="97"/>
-        <item x="149"/>
-        <item x="160"/>
-        <item x="42"/>
-        <item x="74"/>
-        <item x="67"/>
-        <item x="14"/>
-        <item x="155"/>
-        <item x="61"/>
-        <item x="76"/>
-        <item x="144"/>
-        <item x="32"/>
-        <item x="27"/>
-        <item x="79"/>
-        <item x="37"/>
-        <item x="109"/>
-        <item x="90"/>
-        <item x="133"/>
-        <item x="140"/>
-        <item x="166"/>
-        <item x="110"/>
-        <item x="57"/>
-        <item x="23"/>
-        <item x="35"/>
-        <item x="102"/>
-        <item x="38"/>
-        <item x="139"/>
-        <item x="174"/>
-        <item x="119"/>
-        <item x="173"/>
-        <item x="123"/>
-        <item x="53"/>
-        <item x="9"/>
-        <item x="121"/>
-        <item x="136"/>
-        <item x="84"/>
-        <item x="93"/>
-        <item x="52"/>
-        <item x="163"/>
-        <item x="181"/>
-        <item x="129"/>
-        <item x="177"/>
-        <item x="51"/>
-        <item x="19"/>
-        <item x="39"/>
-        <item x="16"/>
-        <item x="89"/>
-        <item x="94"/>
-        <item x="11"/>
-        <item x="15"/>
-        <item x="157"/>
-        <item x="130"/>
-        <item x="75"/>
-        <item x="68"/>
-        <item x="135"/>
-        <item x="107"/>
-        <item x="185"/>
-        <item x="120"/>
-        <item x="116"/>
-        <item x="100"/>
-        <item x="7"/>
-        <item x="12"/>
-        <item x="54"/>
-        <item x="56"/>
-        <item x="131"/>
-        <item x="41"/>
-        <item x="138"/>
-        <item x="115"/>
-        <item x="150"/>
-        <item x="96"/>
-        <item x="134"/>
-        <item x="103"/>
-        <item x="55"/>
-        <item x="101"/>
-        <item x="183"/>
-        <item x="104"/>
-        <item x="60"/>
-        <item x="108"/>
-        <item x="43"/>
-        <item x="36"/>
-        <item x="187"/>
-        <item x="73"/>
-        <item x="49"/>
-        <item x="87"/>
-        <item x="168"/>
-        <item x="151"/>
-        <item x="141"/>
-        <item x="44"/>
-        <item x="5"/>
-        <item x="172"/>
-        <item x="113"/>
-        <item x="63"/>
-        <item x="46"/>
-        <item x="154"/>
-        <item x="147"/>
-        <item x="45"/>
-        <item x="48"/>
-        <item x="126"/>
-        <item x="105"/>
-        <item x="20"/>
-        <item x="169"/>
-        <item x="179"/>
-        <item x="159"/>
-        <item x="33"/>
-        <item x="31"/>
-        <item x="50"/>
-        <item x="62"/>
-        <item x="125"/>
-        <item x="170"/>
-        <item x="98"/>
-        <item x="153"/>
-        <item x="65"/>
-        <item x="34"/>
-        <item x="3"/>
-        <item x="158"/>
-        <item x="58"/>
-        <item x="178"/>
-        <item x="40"/>
-        <item x="66"/>
-        <item x="28"/>
-        <item x="82"/>
-        <item x="78"/>
-        <item x="112"/>
-        <item x="70"/>
-        <item x="161"/>
-        <item x="4"/>
-        <item x="17"/>
-        <item x="86"/>
-        <item x="106"/>
-        <item x="167"/>
-        <item x="80"/>
-        <item x="146"/>
-        <item x="124"/>
-        <item x="142"/>
-        <item x="21"/>
-        <item x="137"/>
-        <item x="2"/>
-        <item x="117"/>
-        <item x="81"/>
-        <item x="30"/>
-        <item x="59"/>
-        <item x="180"/>
-        <item x="128"/>
-        <item x="127"/>
-        <item x="72"/>
-        <item x="71"/>
-        <item x="24"/>
-        <item x="18"/>
-        <item x="175"/>
-        <item x="171"/>
-        <item x="152"/>
-        <item x="165"/>
-        <item x="92"/>
-        <item x="122"/>
-        <item x="156"/>
-        <item x="176"/>
-        <item x="77"/>
-        <item x="47"/>
-        <item x="13"/>
-        <item x="64"/>
-        <item x="99"/>
-        <item x="29"/>
-        <item x="88"/>
-        <item x="83"/>
-        <item x="10"/>
-        <item x="148"/>
-        <item x="85"/>
-        <item x="8"/>
-        <item x="91"/>
-        <item x="111"/>
-        <item x="145"/>
-        <item x="25"/>
-        <item x="186"/>
-        <item x="6"/>
-        <item x="69"/>
-        <item x="143"/>
-        <item x="184"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Total_Energy_Usage" fld="7" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
   <location ref="A18:B31" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
@@ -10045,8 +9763,41 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="14">
+        <item x="2"/>
+        <item x="9"/>
+        <item x="7"/>
+        <item x="12"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="11"/>
+        <item x="3"/>
+        <item x="8"/>
+        <item x="10"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="13">
+        <item x="4"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="11"/>
+        <item x="2"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="9"/>
+        <item x="8"/>
+        <item x="10"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField dataField="1" showAll="0">
       <items count="189">
         <item x="164"/>
@@ -10345,8 +10096,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="G3:H14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField axis="axisRow" showAll="0" measureFilter="1">
@@ -10619,8 +10370,41 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="14">
+        <item x="2"/>
+        <item x="9"/>
+        <item x="7"/>
+        <item x="12"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="11"/>
+        <item x="3"/>
+        <item x="8"/>
+        <item x="10"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="13">
+        <item x="4"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="11"/>
+        <item x="2"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="9"/>
+        <item x="8"/>
+        <item x="10"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField dataField="1" showAll="0">
       <items count="189">
         <item x="164"/>
@@ -10906,8 +10690,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="D3:E7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
@@ -11252,10 +11036,328 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+  <location ref="A3:B11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="10">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="8">
+        <item x="6"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="14">
+        <item x="2"/>
+        <item x="9"/>
+        <item x="7"/>
+        <item x="12"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="11"/>
+        <item x="3"/>
+        <item x="8"/>
+        <item x="10"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="13">
+        <item x="4"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="11"/>
+        <item x="2"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="9"/>
+        <item x="8"/>
+        <item x="10"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0">
+      <items count="189">
+        <item x="164"/>
+        <item x="26"/>
+        <item x="132"/>
+        <item x="95"/>
+        <item x="182"/>
+        <item x="1"/>
+        <item x="22"/>
+        <item x="118"/>
+        <item x="162"/>
+        <item x="114"/>
+        <item x="0"/>
+        <item x="97"/>
+        <item x="149"/>
+        <item x="160"/>
+        <item x="42"/>
+        <item x="74"/>
+        <item x="67"/>
+        <item x="14"/>
+        <item x="155"/>
+        <item x="61"/>
+        <item x="76"/>
+        <item x="144"/>
+        <item x="32"/>
+        <item x="27"/>
+        <item x="79"/>
+        <item x="37"/>
+        <item x="109"/>
+        <item x="90"/>
+        <item x="133"/>
+        <item x="140"/>
+        <item x="166"/>
+        <item x="110"/>
+        <item x="57"/>
+        <item x="23"/>
+        <item x="35"/>
+        <item x="102"/>
+        <item x="38"/>
+        <item x="139"/>
+        <item x="174"/>
+        <item x="119"/>
+        <item x="173"/>
+        <item x="123"/>
+        <item x="53"/>
+        <item x="9"/>
+        <item x="121"/>
+        <item x="136"/>
+        <item x="84"/>
+        <item x="93"/>
+        <item x="52"/>
+        <item x="163"/>
+        <item x="181"/>
+        <item x="129"/>
+        <item x="177"/>
+        <item x="51"/>
+        <item x="19"/>
+        <item x="39"/>
+        <item x="16"/>
+        <item x="89"/>
+        <item x="94"/>
+        <item x="11"/>
+        <item x="15"/>
+        <item x="157"/>
+        <item x="130"/>
+        <item x="75"/>
+        <item x="68"/>
+        <item x="135"/>
+        <item x="107"/>
+        <item x="185"/>
+        <item x="120"/>
+        <item x="116"/>
+        <item x="100"/>
+        <item x="7"/>
+        <item x="12"/>
+        <item x="54"/>
+        <item x="56"/>
+        <item x="131"/>
+        <item x="41"/>
+        <item x="138"/>
+        <item x="115"/>
+        <item x="150"/>
+        <item x="96"/>
+        <item x="134"/>
+        <item x="103"/>
+        <item x="55"/>
+        <item x="101"/>
+        <item x="183"/>
+        <item x="104"/>
+        <item x="60"/>
+        <item x="108"/>
+        <item x="43"/>
+        <item x="36"/>
+        <item x="187"/>
+        <item x="73"/>
+        <item x="49"/>
+        <item x="87"/>
+        <item x="168"/>
+        <item x="151"/>
+        <item x="141"/>
+        <item x="44"/>
+        <item x="5"/>
+        <item x="172"/>
+        <item x="113"/>
+        <item x="63"/>
+        <item x="46"/>
+        <item x="154"/>
+        <item x="147"/>
+        <item x="45"/>
+        <item x="48"/>
+        <item x="126"/>
+        <item x="105"/>
+        <item x="20"/>
+        <item x="169"/>
+        <item x="179"/>
+        <item x="159"/>
+        <item x="33"/>
+        <item x="31"/>
+        <item x="50"/>
+        <item x="62"/>
+        <item x="125"/>
+        <item x="170"/>
+        <item x="98"/>
+        <item x="153"/>
+        <item x="65"/>
+        <item x="34"/>
+        <item x="3"/>
+        <item x="158"/>
+        <item x="58"/>
+        <item x="178"/>
+        <item x="40"/>
+        <item x="66"/>
+        <item x="28"/>
+        <item x="82"/>
+        <item x="78"/>
+        <item x="112"/>
+        <item x="70"/>
+        <item x="161"/>
+        <item x="4"/>
+        <item x="17"/>
+        <item x="86"/>
+        <item x="106"/>
+        <item x="167"/>
+        <item x="80"/>
+        <item x="146"/>
+        <item x="124"/>
+        <item x="142"/>
+        <item x="21"/>
+        <item x="137"/>
+        <item x="2"/>
+        <item x="117"/>
+        <item x="81"/>
+        <item x="30"/>
+        <item x="59"/>
+        <item x="180"/>
+        <item x="128"/>
+        <item x="127"/>
+        <item x="72"/>
+        <item x="71"/>
+        <item x="24"/>
+        <item x="18"/>
+        <item x="175"/>
+        <item x="171"/>
+        <item x="152"/>
+        <item x="165"/>
+        <item x="92"/>
+        <item x="122"/>
+        <item x="156"/>
+        <item x="176"/>
+        <item x="77"/>
+        <item x="47"/>
+        <item x="13"/>
+        <item x="64"/>
+        <item x="99"/>
+        <item x="29"/>
+        <item x="88"/>
+        <item x="83"/>
+        <item x="10"/>
+        <item x="148"/>
+        <item x="85"/>
+        <item x="8"/>
+        <item x="91"/>
+        <item x="111"/>
+        <item x="145"/>
+        <item x="25"/>
+        <item x="186"/>
+        <item x="6"/>
+        <item x="69"/>
+        <item x="143"/>
+        <item x="184"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Total_Energy_Usage" fld="7" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_Month" sourceName="Month">
   <pivotTables>
     <pivotTable tabId="3" name="PivotTable2"/>
+    <pivotTable tabId="3" name="PivotTable1"/>
+    <pivotTable tabId="3" name="PivotTable3"/>
+    <pivotTable tabId="3" name="PivotTable4"/>
   </pivotTables>
   <data>
     <tabular pivotCacheId="1">
@@ -11282,6 +11384,9 @@
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_Appliances_Count" sourceName="Appliances_Count">
   <pivotTables>
     <pivotTable tabId="3" name="PivotTable2"/>
+    <pivotTable tabId="3" name="PivotTable1"/>
+    <pivotTable tabId="3" name="PivotTable3"/>
+    <pivotTable tabId="3" name="PivotTable4"/>
   </pivotTables>
   <data>
     <tabular pivotCacheId="1">
@@ -11309,6 +11414,9 @@
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_Family_Size" sourceName="Family_Size">
   <pivotTables>
     <pivotTable tabId="3" name="PivotTable2"/>
+    <pivotTable tabId="3" name="PivotTable1"/>
+    <pivotTable tabId="3" name="PivotTable3"/>
+    <pivotTable tabId="3" name="PivotTable4"/>
   </pivotTables>
   <data>
     <tabular pivotCacheId="1">
@@ -11624,7 +11732,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J251"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="A2:J251"/>
     </sheetView>
   </sheetViews>
@@ -20750,7 +20858,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
@@ -20772,7 +20880,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:A127"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A103" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
       <selection activeCell="A127" sqref="A127"/>
     </sheetView>
   </sheetViews>
